--- a/ESEEM_d1_calculation.xlsx
+++ b/ESEEM_d1_calculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nijkley\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D2A63D-85A8-4CBE-ADE2-A3D4D3045E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D49A1-CBEB-4705-9361-A4ACD208B908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Freq</t>
-  </si>
-  <si>
-    <t>Ghz</t>
   </si>
   <si>
     <t>Field</t>
@@ -49,13 +46,13 @@
     <t>d1</t>
   </si>
   <si>
-    <t>MHz</t>
-  </si>
-  <si>
     <t>Find the d1 value in which the value in column C is as close to zero.</t>
   </si>
   <si>
     <t>Enter in the magnetic field in which you will run the 3pESEEM</t>
+  </si>
+  <si>
+    <t>GHz</t>
   </si>
 </sst>
 </file>
@@ -495,7 +492,7 @@
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,12 +504,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -524,21 +521,21 @@
         <v>1.3403280642347122E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>3148</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2210,11 +2207,11 @@
         <v>386</v>
       </c>
       <c r="B135">
-        <f t="shared" ref="B135:B166" si="8">COS(B$4*A135*(2*PI()))</f>
+        <f t="shared" ref="B135:B156" si="8">COS(B$4*A135*(2*PI()))</f>
         <v>0.46144084803724067</v>
       </c>
       <c r="C135">
-        <f t="shared" ref="C135:C166" si="9">1-B135</f>
+        <f t="shared" ref="C135:C156" si="9">1-B135</f>
         <v>0.53855915196275927</v>
       </c>
     </row>
@@ -2502,7 +2499,7 @@
   <dimension ref="A2:G199"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2521,16 +2518,16 @@
         <v>2.1894561499999996E-3</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
       </c>
       <c r="F2">
         <v>3350</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5034,11 +5031,11 @@
         <v>524</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B227" si="12">COS(B$2*A196*(2*PI()))</f>
+        <f t="shared" ref="B196:B199" si="12">COS(B$2*A196*(2*PI()))</f>
         <v>0.60155003906816995</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C227" si="13">1-B196</f>
+        <f t="shared" ref="C196:C199" si="13">1-B196</f>
         <v>0.39844996093183005</v>
       </c>
     </row>
